--- a/rajdhani_node/uploads/SAE 61_template.xlsx
+++ b/rajdhani_node/uploads/SAE 61_template.xlsx
@@ -413,7 +413,7 @@
         <v>wire_type</v>
       </c>
       <c r="D1" t="str">
-        <v>with_cap</v>
+        <v>ferrule</v>
       </c>
       <c r="E1" t="str">
         <v>fitting_piece</v>
